--- a/tottus.xlsx
+++ b/tottus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C337"/>
+  <dimension ref="A1:C189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,12 +458,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SIX PACK MEZCLA LÁCTEA IDEAL AMANECER 6 UNIDADES</t>
+          <t>AZÚCAR RUBIA TOTTUS 5 KG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>s/ 16.3 UN</t>
+          <t>s/ 19.9 UN</t>
         </is>
       </c>
     </row>
@@ -475,12 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SIX PACK LECHE EVAPORADA IDEAL 395 GR</t>
+          <t>AZÚCAR RUBIA DULFINA 5 KG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>s/ 20.9 UN</t>
+          <t>s/ 22.9 UN</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LECHE FRESCA ENTERA GLORIA 1 LT</t>
+          <t>AZÚCAR RUBIA TOTTUS 1 KG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>s/ 5.7 UN</t>
+          <t>s/ 4.7 UN</t>
         </is>
       </c>
     </row>
@@ -509,12 +509,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LECHE EVAPORADA GLORIA 400 GR</t>
+          <t>AZÚCAR RUBIA TOTTUS 2 KG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>s/ 4.4 UN</t>
+          <t>s/ 8.5 UN</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PACK LECHE SEMIDESCREMADA GLORIA 3 UNIDADES</t>
+          <t>AZÚCAR RUBIA DULFINA 1 KG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>s/ 16.4 UN</t>
+          <t>s/ 5.2 UN</t>
         </is>
       </c>
     </row>
@@ -543,12 +543,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SIX PACK LECHE LIGHT GLORIA</t>
+          <t>AZÚCAR BLANCA DULFINA 1 KG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>s/ 22.4 UN</t>
+          <t>s/ 5.9 UN</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>LECHE FRESCA PASTEURIZADA</t>
+          <t>AZÚCAR BLANCA TOTTUS 2 KG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>s/ 6.5 UN</t>
+          <t>s/ 8.5 UN</t>
         </is>
       </c>
     </row>
@@ -577,12 +577,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>LECHE CHOCOLATADA GLORIA UHT 900 ML</t>
+          <t>AZÚCAR RUBIA DULFINA 2 KG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>s/ 5.2 UN</t>
+          <t>s/ 9.5 UN</t>
         </is>
       </c>
     </row>
@@ -594,12 +594,13 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LECHE EVAPORADA GLORIA LIGHT 400 GR</t>
+          <t>BEBIDA DE COCO SIN AZÚCAR TERRAFERTIL 946 ML</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>s/ 4.7 UN</t>
+          <t>s/ 11.9 UN
+s/ 12.5 UN</t>
         </is>
       </c>
     </row>
@@ -611,12 +612,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LECHE SIN LACTOSA LAIVE BOLSA 900 ML</t>
+          <t>AZÚCAR BLANCA CON STEVIA TOTTUS 500 GR</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>s/ 4.5 UN</t>
+          <t>s/ 7.5 UN</t>
         </is>
       </c>
     </row>
@@ -628,12 +629,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LECHE GLORIA LIGHT UHT 900 ML</t>
+          <t>AZÚCAR RUBIA CON STEVIA TOTTUS 500 GR</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>s/ 4.6 UN</t>
+          <t>s/ 7.5 UN</t>
         </is>
       </c>
     </row>
@@ -645,12 +646,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LECHE FRESCA ENTERA LAIVE 900 ML</t>
+          <t>AZÚCAR DE COCO MI TIERRA 250 GR</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>s/ 4 UN</t>
+          <t>s/ 23.2 UN</t>
         </is>
       </c>
     </row>
@@ -662,12 +663,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SIX PACK LECHE EVAPORADA GLORIA ENTERA 170 ML</t>
+          <t>AZÚCAR RUBIA LIGHT ONZA 500 GR</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>s/ 13 UN</t>
+          <t>s/ 9.2 UN</t>
         </is>
       </c>
     </row>
@@ -679,12 +680,13 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LECHE EVAPORADA NIÑOS DEFENSA GLORIA 400 GR</t>
+          <t>BEBIDA DE ALMENDRA SIN AZÚCAR TERRAFERTIL 946 ML</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>s/ 4.5 UN</t>
+          <t>s/ 11.9 UN
+s/ 12.5 UN</t>
         </is>
       </c>
     </row>
@@ -696,12 +698,13 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>LECHE SEMIDESCREM UHT LIGHT 3 UNIDADES</t>
+          <t>BEBIDA DE ALMENDRA VAINILLA SIN AZÚCAR TERRAFERTI 200 ML</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>s/ 17.2 UN</t>
+          <t>s/ 11.9 UN
+s/ 12.5 UN</t>
         </is>
       </c>
     </row>
@@ -713,12 +716,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>LECHE GLORIA ENTERA UHT 900 ML</t>
+          <t>AZÚCAR BLANCA DULFINA 2 KG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>s/ 4.6 UN</t>
+          <t>s/ 10.9 UN</t>
         </is>
       </c>
     </row>
@@ -730,12 +733,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>LECHE SIN LACTOSA GLORIA 1 LT</t>
+          <t>AZÚCAR INCAUCA LIGHT 850 GR</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>s/ 6.3 UN</t>
+          <t>s/ 16 UN</t>
         </is>
       </c>
     </row>
@@ -747,12 +750,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>LECHE EN POLVO GLORIA 800 GR</t>
+          <t>AZÚCAR INCAUCA MORENA LIGHT 850 GR</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>s/ 38 UN</t>
+          <t>s/ 16 UN</t>
         </is>
       </c>
     </row>
@@ -764,12 +767,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>LECHE PASTEURIZADA SABOR CHOCO</t>
+          <t>AZÚCAR DE COCO ORGÁNICA COCO SUGAR 250 GR</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>s/ 8.5 UN</t>
+          <t>s/ 19.7 UN</t>
         </is>
       </c>
     </row>
@@ -781,12 +784,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>LECHE CHOCOLATADA TOTTUS 200 ML</t>
+          <t>BEBIDA DE ALMENDRA SIN AZÚCAR NATURA 946 ML</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>s/ 1.9 UN</t>
+          <t>s/ 17.5 UN</t>
         </is>
       </c>
     </row>
@@ -798,12 +801,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>LECHE UHT NIÑOS GLORIA 1 LT</t>
+          <t>LAKANTO ENDULZANTE GOLDEN 454 GR</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>s/ 6.3 UN</t>
+          <t>s/ 69 UN</t>
         </is>
       </c>
     </row>
@@ -815,12 +818,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>LECHE UTH CHOCOLATE GLORIA 1 LT</t>
+          <t>LAKANTO ENDULZANTE GOLDEN DE 3 GR</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>s/ 6.2 UN</t>
+          <t>s/ 34 UN</t>
         </is>
       </c>
     </row>
@@ -832,12 +835,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>LECHE FRESCA LIGHT GLORIA 1 LT</t>
+          <t>LAKANTO ENDULZANTE CLASICO 30 UNIDADES</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>s/ 5.9 UN</t>
+          <t>s/ 34 UN</t>
         </is>
       </c>
     </row>
@@ -849,12 +852,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>LECHE SEMIDESCREM UHT SUPER LIGHT 3 UNIDADES</t>
+          <t>LAKANTO ENDULZANTE CLÁSICO 454 GR</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>s/ 16 UN</t>
+          <t>s/ 69 UN</t>
         </is>
       </c>
     </row>
@@ -866,12 +869,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>LECHE GLORIA PARA NIÑOS DHA UHT 3 UNIDADES</t>
+          <t>PANELA GRANULADA GATTI 1KG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>s/ 17.4 UN</t>
+          <t>s/ 17.5 UN</t>
         </is>
       </c>
     </row>
@@ -883,12 +886,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>LECHE FRESCA NIÑOS LAIVE CAJA 1 LT</t>
+          <t>PANELA GRANULADA GATTI 500 GR</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>s/ 5.5 UN</t>
+          <t>s/ 9.9 UN</t>
         </is>
       </c>
     </row>
@@ -900,12 +903,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SIX PACK LECHE EVAPORADA DESCREMADA GLORIA 400 GR</t>
+          <t>AZÚCAR RUBIA IN THE RAW 907 GR</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>s/ 27.2 UN</t>
+          <t>s/ 23.5 UN</t>
         </is>
       </c>
     </row>
@@ -917,12 +920,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SIX PACK LECHE EVAPORADA IDEAL LIGHT 395 GR</t>
+          <t>STEVIA SPLENDA 40 UNIDADES</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>s/ 19.6 UN</t>
+          <t>s/ 25.8 UN</t>
         </is>
       </c>
     </row>
@@ -934,13 +937,13 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>PACK GLORIA UHT ENTERA 3 UNIDADES</t>
+          <t>STEVIA SPLENDA 80 UNIDADES</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>s/ 14.25 UN
-s/ 15 UN</t>
+          <t>s/ 31.5 UN
+s/ 44.5 UN</t>
         </is>
       </c>
     </row>
@@ -952,12 +955,13 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FOUR PACK LECHE FRESCA SEMIDESCREMADA LAIVE 1LT</t>
+          <t>STEVIA SPLENDA EDULCORANTE 160 UNIDADES</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>s/ 20.9 UN</t>
+          <t>s/ 56.9 UN
+s/ 79.8 UN</t>
         </is>
       </c>
     </row>
@@ -969,12 +973,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MEZCLA LACTEA BONLE</t>
+          <t>ENDULZANTE SPLENDA ECONOPACK 200 GR</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>s/ 3.55 UN</t>
+          <t>s/ 53.1 UN</t>
         </is>
       </c>
     </row>
@@ -986,12 +990,13 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>FOUR PACK LECHE SIN LACTOSA 1 LT</t>
+          <t>BEBIDA AVENA NATURES HEART SIN AZÚCAR ANADIDA 946 ML</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>s/ 22.5 UN</t>
+          <t>s/ 11.9 UN
+s/ 12.5 UN</t>
         </is>
       </c>
     </row>
@@ -1003,12 +1008,13 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>LECHE EVAPORADA LIGHT TOTTUS 410 GR</t>
+          <t>BEBIDA CASHEW NATURES HEART SIN AZÚCAR NUEZ INDIA 946 ML</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>s/ 3.5 UN</t>
+          <t>s/ 11.9 UN
+s/ 12.5 UN</t>
         </is>
       </c>
     </row>
@@ -1020,12 +1026,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>LECHE EVAPORADA TOTTUS 410 GR</t>
+          <t>LÍQUIDO EXTRACTO LAKANTO 52 ML</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>s/ 3.5 UN</t>
+          <t>s/ 75 UN</t>
         </is>
       </c>
     </row>
@@ -1037,12 +1043,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>LECHE ENTERA GLORIA 946 ML</t>
+          <t>MEZCLA EN POLVO A BASE DE FRUTO DEL MONJE 60 GR</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>s/ 5.1 UN</t>
+          <t>s/ 32 UN</t>
         </is>
       </c>
     </row>
@@ -1054,12 +1060,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SIX PACK LECHE EVAPORADA TOTTUS 410 GR</t>
+          <t>MEZCLA EN POLVO A BASE DE FRUTO DEL MONJE 120 UNIDADES</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>s/ 16.9 UN</t>
+          <t>s/ 36.1 UN</t>
         </is>
       </c>
     </row>
@@ -1071,12 +1077,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SIX PACK LECHE EVAPORADA LIGHT TOTTUS 410 GR</t>
+          <t>CREMADOR DE ALMENDRA Y VAINILLA SIN AZÚCAR NATURE'S HEART TETRAPACK 500ML</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>s/ 16.9 UN</t>
+          <t>s/ 11.9 UN</t>
         </is>
       </c>
     </row>
@@ -1088,12 +1094,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>LECHE SIN LACTOSA GLORIA 400 GR</t>
+          <t>ENDULZANTE SPLENDA 100 UNIDADES</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>s/ 4.9 UN</t>
+          <t>s/ 22.5 UN</t>
         </is>
       </c>
     </row>
@@ -1105,12 +1111,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>SIX PACK LECHE EVAPORADA NIÑOS GLORIA 170 GR</t>
+          <t>ENDULZANTE EN POLVO STEVIA CORONEL 50 GR</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>s/ 15.1 UN</t>
+          <t>s/ 23.5 UN</t>
         </is>
       </c>
     </row>
@@ -1122,12 +1128,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>SIX PACK LECHE GLORIA ENTERA</t>
+          <t>BEBIDA ALMENDRA VAINILLA NATURA 946 ML</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>s/ 22.8 UN</t>
+          <t>s/ 17.5 UN</t>
         </is>
       </c>
     </row>
@@ -1139,12 +1145,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>FOUR PACK LECHE FRESCA DESCREMADA SBELT 1 LT</t>
+          <t>BEBIDA DE ALMENDRA SILK 946 ML</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>s/ 23 UN</t>
+          <t>s/ 16.7 UN</t>
         </is>
       </c>
     </row>
@@ -1156,12 +1162,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>LECHE SIN LÁCTOSA UHT GLORIA 946 ML</t>
+          <t>BEBIDA DE ALMENDRA VAINILLA SILK 946 ML</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>s/ 5.5 UN</t>
+          <t>s/ 16.7 UN</t>
         </is>
       </c>
     </row>
@@ -1173,12 +1179,14 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>LECHE EVAPORADA IDEAL ENTERA 395 GR</t>
+          <t>YOGURT GRIEGO NATURAL SIN AZUCAR</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>s/ 3.7 UN</t>
+          <t>s/ 14.9 UN
+s/ 15.7 UN
+s/ 16.7 UN</t>
         </is>
       </c>
     </row>
@@ -1190,12 +1198,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>LECHE FRESCA SIN LACTOSA LAIVE 1LT</t>
+          <t>MEZCLA PARA PANQUEQUES SIN AZÚCAR 184 GR</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>s/ 5.7 UN</t>
+          <t>s/ 17.9 UN</t>
         </is>
       </c>
     </row>
@@ -1207,12 +1215,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>LECHE SIN LACTOSA LAIVE 400 GR</t>
+          <t>CREAM CANDIES SUGAR FREE 70 GR</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>s/ 3.8 UN</t>
+          <t>s/ 16.4 UN</t>
         </is>
       </c>
     </row>
@@ -1224,12 +1232,13 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>LECHE SEMIDESCREMADA LAIVE 900 ML</t>
+          <t>CEREAL HOJUELAS DE MAÍZ ANGEL FLAKES 500 GR</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>s/ 4 UN</t>
+          <t>s/ 7.3 UN
+s/ 12.5 UN</t>
         </is>
       </c>
     </row>
@@ -1241,13 +1250,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>SIX PACK LECHE EVAPORADA NIÑOS DHA GLORIA 400 GR</t>
+          <t>YOGURT GRIEGO PULPA DE FRESA LIGHT</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>s/ 22.4 UN
-s/ 23 UN</t>
+          <t>s/ 6.9 UN</t>
         </is>
       </c>
     </row>
@@ -1259,12 +1267,13 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>LECHE FRESCA ENTERA LAIVE 1 LT</t>
+          <t>CEREAL HOJUELA DE MAÍZ ANGEL FLAKES 1 KG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>s/ 5.5 UN</t>
+          <t>s/ 14.3 UN
+s/ 19.9 UN</t>
         </is>
       </c>
     </row>
@@ -1276,12 +1285,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>LECHE FRESCA DESCREMADA LAIVE 1 LT</t>
+          <t>YOGURT YOLEICITO MIX VAINILLA C/BOLITAS COLORES</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>s/ 5.7 UN</t>
+          <t>s/ 3.1 UN</t>
         </is>
       </c>
     </row>
@@ -1293,12 +1302,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>FOUR PACK LECHE FRESCA LAIVE 1 LT</t>
+          <t>YOGURT YOLEICITO MIX VAINILLA C/BOLITAS CHOCOLATE</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>s/ 20.9 UN</t>
+          <t>s/ 3.1 UN</t>
         </is>
       </c>
     </row>
@@ -1310,13 +1319,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BEBIDA AVENA NATURES HEART SIN AZÚCAR ANADIDA 946 ML</t>
+          <t>YOGURT NATURAL GRIEGO S/AZUC TIGO</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>s/ 11.9 UN
-s/ 12.5 UN</t>
+          <t>s/ 9.9 UN</t>
         </is>
       </c>
     </row>
@@ -1328,13 +1336,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BEBIDA CASHEW NATURES HEART SIN AZÚCAR NUEZ INDIA 946 ML</t>
+          <t>PANELA TOTTUS ORIGENES 1KG</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>s/ 11.9 UN
-s/ 12.5 UN</t>
+          <t>s/ 16.5 UN</t>
         </is>
       </c>
     </row>
@@ -1346,12 +1353,14 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BEBIDA DE ALMENDRA NATURAL 946 ML</t>
+          <t>YOGURT GRIEGO NATURAL DESCREMADO TIGO X 1KG</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>s/ 16.7 UN</t>
+          <t>s/ 14.9 UN
+s/ 15.7 UN
+s/ 16.7 UN</t>
         </is>
       </c>
     </row>
@@ -1363,12 +1372,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BEBIDA DE ALMENDRA VAINILLA SILK 946 ML</t>
+          <t>WAFER CHOCOLATE SIN AZUCAR</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>s/ 16.7 UN</t>
+          <t>s/ 5.6 UN</t>
         </is>
       </c>
     </row>
@@ -1380,12 +1389,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BEBIDA DE ALMENDRA SILK 946 ML</t>
+          <t>WAFER DE VAINILLA SIN AZUCAR</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>s/ 16.7 UN</t>
+          <t>s/ 5.6 UN</t>
         </is>
       </c>
     </row>
@@ -1397,12 +1406,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>SIX PACK GLORIA UHT ACTIAVENA 200 ML</t>
+          <t>BARRA MILKY SIN AZÚCAR</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>s/ 10.3 UN</t>
+          <t>s/ 41.5 UN</t>
         </is>
       </c>
     </row>
@@ -1414,12 +1423,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>SIX PACK CONCENTRADA SIN LACTOSA GLORIA 400 GR</t>
+          <t>WAFER VAINILLA SIN AZÚCAR 3 UNDS</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>s/ 23.6 UN</t>
+          <t>s/ 13.7 UN</t>
         </is>
       </c>
     </row>
@@ -1431,12 +1440,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>SIX PACK MEZCLA LÁCTEA COMPUESTA BONLÉ DESLACTOSADA 500 GR</t>
+          <t>HELADO DE COCO Y MASA DE GALLETA</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>s/ 22.4 UN</t>
+          <t>s/ 39.9 UN</t>
         </is>
       </c>
     </row>
@@ -1448,12 +1457,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>FOUR PACK LECHE FRESCA LAIVE NIÑOS 1 LT</t>
+          <t>CHOCOLATE NEGRO SIN AZÚCAR 75 GR</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>s/ 23.7 UN</t>
+          <t>s/ 8.3 UN</t>
         </is>
       </c>
     </row>
@@ -1465,12 +1474,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>LECHE CONCENTRADA NIÑOS LAIVE 400 GR</t>
+          <t>CHOCOLATE CON LECHE SIN AZÚCAR 75 GR</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>s/ 4.1 UN</t>
+          <t>s/ 8.3 UN</t>
         </is>
       </c>
     </row>
@@ -1482,12 +1491,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>SIXPACK LECHE SIN LACTOSA LAIVE 400 GR</t>
+          <t>CHOCOLATE BITTER 85% SIN AZÚCAR 100 GR</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>s/ 23.1 UN</t>
+          <t>s/ 18.1 UN</t>
         </is>
       </c>
     </row>
@@ -1499,12 +1508,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MEZCLA LÁCTEA POLVO ANCHOR 800 GR</t>
+          <t>CHOCOLATE BLANCO SIN AZÚCAR 75 GR</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>s/ 35.5 UN</t>
+          <t>s/ 8.3 UN</t>
         </is>
       </c>
     </row>
@@ -1516,12 +1525,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>LECHE FRESCA SBELT DESCREMADA 1 LT</t>
+          <t>CHOCOLATE DE TAZA CON AZÚCAR 100 GR</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>s/ 6 UN</t>
+          <t>s/ 7.8 UN</t>
         </is>
       </c>
     </row>
@@ -1533,12 +1542,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>LECHE EVAPORADA ENTERA LAIVE 400 GR</t>
+          <t>CREMA DE MANI SIN AZUCAR AÑADIDA</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>s/ 3.9 UN</t>
+          <t>s/ 9.5 UN</t>
         </is>
       </c>
     </row>
@@ -1550,12 +1559,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>SIX PACK LECHE EVAPORADA ENTERA LAIVE 400 GR</t>
+          <t>MONK FRUIT WITH ERYTHRITOL 1 KG</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>s/ 22.9 UN</t>
+          <t>s/ 59.9 UN</t>
         </is>
       </c>
     </row>
@@ -1567,12 +1576,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>SIX PACK ALIMENTO LACTEO LÍQUIDO MILO NUTRI PLUS 165 ML</t>
+          <t>CHOCOLATE AVELLANAS SIN AZÚCAR 75 GR</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>s/ 11.1 UN</t>
+          <t>s/ 8.3 UN</t>
         </is>
       </c>
     </row>
@@ -1584,12 +1593,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>SIX PACK LECHE NIÑOS LAIVE 400 GR</t>
+          <t>CHOCOLATE ALMENDRAS SIN AZÚCAR 75 GR</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>s/ 23.9 UN</t>
+          <t>s/ 8.3 UN</t>
         </is>
       </c>
     </row>
@@ -1601,12 +1610,13 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>CREMA DE LECHE NESTLE 160 GR</t>
+          <t>HELADO CON CREMA DE MANI 473 ML</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>s/ 7.7 UN</t>
+          <t>s/ 32.9 UN
+s/ 39.9 UN</t>
         </is>
       </c>
     </row>
@@ -1618,12 +1628,13 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>FOUR PACK BEBIDA DE SOYA LAIVE 1 LT</t>
+          <t>HELADO CON CHOCOLATE 473 ML</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>s/ 23.9 UN</t>
+          <t>s/ 32.9 UN
+s/ 39.9 UN</t>
         </is>
       </c>
     </row>
@@ -1635,12 +1646,13 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>LECHE SIN LÁCTOSA SABOR CHOCOLATE LAIVE 1 LT</t>
+          <t>HELADO CON CARAMELO Y SAL MARINA HALO TOP ICE CREAM 473 ML</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>s/ 5.5 UN</t>
+          <t>s/ 32.9 UN
+s/ 39.9 UN</t>
         </is>
       </c>
     </row>
@@ -1652,12 +1664,13 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>SIX PACK MEZCLA LÁCTEA SIN LACTOSA LAIVE</t>
+          <t>HELADO CON GALLETAS SABOR CHOCOLATE 47</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>s/ 22.9 UN</t>
+          <t>s/ 32.9 UN
+s/ 39.9 UN</t>
         </is>
       </c>
     </row>
@@ -1669,12 +1682,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>PACK FÓRMULA LIQUIDA NAN BEBES 2 X 10 UND</t>
+          <t>GELATINA SIN AZÚCAR SABOR A FRESA 19 GR</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>s/ 57 UN</t>
+          <t>s/ 3.8 UN</t>
         </is>
       </c>
     </row>
@@ -1686,12 +1699,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>SIX PACK LECHE SABOR CHOCOLATE LAIVE 180 ML</t>
+          <t>CHOCOLATE BITTER CACAO SIN AZÚCAR 90 GR</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>s/ 8.5 UN</t>
+          <t>s/ 19.3 UN</t>
         </is>
       </c>
     </row>
@@ -1703,12 +1716,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>LECHE DESCREMADA TOTTUS 1 LT</t>
+          <t>CHOCOLATE NEGRO CAFÉ SIN AZÚCAR 75 GR</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>s/ 4.5 UN</t>
+          <t>s/ 8.3 UN</t>
         </is>
       </c>
     </row>
@@ -1720,13 +1733,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>LECHE SEMIDESCREMADA TOTTUS 1 LT</t>
+          <t>CHOCO LECHE CACAO SIN AZÚCAR 90 GR</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>s/ 3.5 UN
-s/ 4.5 UN</t>
+          <t>s/ 19.3 UN</t>
         </is>
       </c>
     </row>
@@ -1738,14 +1750,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>SIX PACK LECHE SEMIDESCREMADA TOTTUS 1 LT</t>
+          <t>MERMELADA DE FRANBUESA SIN AZÚCARES HELIOS 280 GR</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>s/ 18.9 UN
-s/ 19.2 UN
-s/ 24.9 UN</t>
+          <t>s/ 16.5 UN</t>
         </is>
       </c>
     </row>
@@ -1757,12 +1767,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>LECHE CHOCOLATADA</t>
+          <t>GELATINA SIN AZÚCAR UNIVERSAL SABOR A NARANJA</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>s/ 6.5 UN</t>
+          <t>s/ 3.8 UN</t>
         </is>
       </c>
     </row>
@@ -1774,12 +1784,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>LECHE ENTERA SABOR CHOCOLATE</t>
+          <t>CHOCOLATE NEGRO FRESAS SIN AZÚCAR 75 GR</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>s/ 9.7 UN</t>
+          <t>s/ 8.3 UN</t>
         </is>
       </c>
     </row>
@@ -1791,12 +1801,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>LECHE ENTERA</t>
+          <t>PRE MEZCLA PANQUEQUE SIN AZUCAR AÑADIDA</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>s/ 9 UN</t>
+          <t>s/ 7 UN</t>
         </is>
       </c>
     </row>
@@ -1808,12 +1818,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>LECHE SEMIDESCREMADA VIGOR 800 ML</t>
+          <t>GELATINA SIN AZÚCAR SABOR A LIMÓN 19 GR</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>s/ 3.95 UN</t>
+          <t>s/ 3.8 UN</t>
         </is>
       </c>
     </row>
@@ -1825,12 +1835,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>MEZCLA LÁCTEA IDEAL AMANECER NUTRI FORTE IDEAL 395 GR</t>
+          <t>GELATINA SIN AZÚCAR UNIVERSAL SABOR A PIÑA 19 GR</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>s/ 3.1 UN</t>
+          <t>s/ 3.8 UN</t>
         </is>
       </c>
     </row>
@@ -1842,12 +1852,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>MEZCLA LÁCTEA POLVO ANCHOR 96 GR</t>
+          <t>HELADO DE ARANDANOS Y CAMU CAMU</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>s/ 4.4 UN</t>
+          <t>s/ 28.9 UN</t>
         </is>
       </c>
     </row>
@@ -1859,12 +1869,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>LECHE FRESCA PASTEURIZADA</t>
+          <t>SALSA BBQ NUEZ/AZUCAR 510 GR</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>s/ 5.5 UN</t>
+          <t>s/ 30.9 UN</t>
         </is>
       </c>
     </row>
@@ -1876,12 +1886,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>LECHE GLORIA DESCREMADA SIN LACTOSA UTH 900 ML</t>
+          <t>GALLETAS CACAO CACAO 0% AZÚCAR 200 GR</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>s/ 4.6 UN</t>
+          <t>s/ 18.6 UN</t>
         </is>
       </c>
     </row>
@@ -1893,13 +1903,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>MEZCLA LÁCTEA BONLÉ PUNCHE 395 GR</t>
+          <t>CREMADOR DE ALMENDRA SIN AZÚCAR NATURES HEART 500 ML</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>s/ 2.8 UN
-s/ 3.1 UN</t>
+          <t>s/ 11.9 UN</t>
         </is>
       </c>
     </row>
@@ -1911,12 +1920,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>BEBIDA DE COCO LAIVE 1 LT</t>
+          <t>CHOCOLATE PASTA PURA SOL DEL CUSCO SIN AZÚCAR</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>s/ 10.9 UN</t>
+          <t>s/ 6 UN</t>
         </is>
       </c>
     </row>
@@ -1928,12 +1937,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>BEBIDA DE ALMENDRA LAIVE 1 LT</t>
+          <t>GRANOLA ORGÁNICA SIN AZÚCAR WASI ORGANICS 300 GR</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>s/ 10.9 UN</t>
+          <t>s/ 17.9 UN</t>
         </is>
       </c>
     </row>
@@ -1945,13 +1954,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>LECHE ENTERA TOTTUS 1 LT</t>
+          <t>PRE MEZCLA GALLETA DE AZUCAR CON GRAGEAS DE COLORES</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>s/ 3.5 UN
-s/ 4.5 UN</t>
+          <t>s/ 7 UN</t>
         </is>
       </c>
     </row>
@@ -1963,12 +1971,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>LECHE CHOCOLATADA LAIVE 900 ML</t>
+          <t>CLORETS MINTS SPEARMINT SIN AZUCAR X 50 PZAS</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>s/ 4.7 UN</t>
+          <t>s/ 5 UN</t>
         </is>
       </c>
     </row>
@@ -1980,12 +1988,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>SIX PACK LECHE DESLACTOSADA TOTTUS 1 LT</t>
+          <t>GASEOSA SABOR REGULAR SIN AZÚCAR BOTELLA 500 ML</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>s/ 27.9 UN</t>
+          <t>s/ 2.7 UN</t>
         </is>
       </c>
     </row>
@@ -1997,12 +2005,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>LECHE DESLACTOSADA TOTTUS 1 LT</t>
+          <t>SUPLEMENTO DE SANDÍA SIN AZÚCAR LAB NUTRITION 630 GR</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>s/ 4.9 UN</t>
+          <t>s/ 179 UN</t>
         </is>
       </c>
     </row>
@@ -2014,12 +2022,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>CREMA DE LECHE NESTLE 300 GR</t>
+          <t>TWO PACK COCA COLA ZERO SIN AZÚCAR 1.5 LT</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>s/ 10.4 UN</t>
+          <t>s/ 11.8 UN</t>
         </is>
       </c>
     </row>
@@ -2031,12 +2039,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>BEBIDA DE SOYA LAIVE 1 LT</t>
+          <t>PANELA TOTTUS DOYPACK 500 GR</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>s/ 5.4 UN</t>
+          <t>s/ 8.3 UN</t>
         </is>
       </c>
     </row>
@@ -2048,13 +2056,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>BEBIDA DE COCO TERRAFERTIL 946 ML</t>
+          <t>PANELA TOTTUS CAJA 50 UNIDADES</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>s/ 11.9 UN
-s/ 12.5 UN</t>
+          <t>s/ 13.5 UN</t>
         </is>
       </c>
     </row>
@@ -2066,13 +2073,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>BEBIDA DE ALMENDRA TERRAFERTIL 946 ML</t>
+          <t>MERMELADA DIETÉTICA DE PIÑA Y PAPAYA DMARCO 210 GR</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>s/ 11.9 UN
-s/ 12.5 UN</t>
+          <t>s/ 11.7 UN</t>
         </is>
       </c>
     </row>
@@ -2084,13 +2090,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>BEBIDA DE ALMENDRA Y COCO TERRAFERTIL 946 ML</t>
+          <t>MERMELADA DE MARACUYÁ CON CHIA 230 GR</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>s/ 11.9 UN
-s/ 12.5 UN</t>
+          <t>s/ 11 UN</t>
         </is>
       </c>
     </row>
@@ -2102,13 +2107,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>BEBIDA VEGETAL ORGÁNICA SOJA TOTTUS LIFE 1 LT</t>
+          <t>MERMELADA DE MARACUYÁ CON CHIA 230 GR</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>s/ 8.9 UN
-s/ 9.9 UN</t>
+          <t>s/ 11 UN</t>
         </is>
       </c>
     </row>
@@ -2120,12 +2124,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>BEBIDA DE ALMENDRA CAFÉ NATURES HEART 330 ML</t>
+          <t>ENDULZANTE PANELA ONZA 500 GR</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>s/ 9.5 UN</t>
+          <t>s/ 10.5 UN</t>
         </is>
       </c>
     </row>
@@ -2137,13 +2141,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>BEBIDA DE COCO SIN AZÚCAR TERRAFERTIL 946 ML</t>
+          <t>MERMELADA DE MANGO LIGTH DMARCO 210 GR</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>s/ 11.9 UN
-s/ 12.5 UN</t>
+          <t>s/ 11.7 UN</t>
         </is>
       </c>
     </row>
@@ -2155,12 +2158,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>BEBIDA CON LECHE SABOR A CHOCOLATE LA PREFERIDA 800 ML</t>
+          <t>MERMELADA DE ARÁNDANO CON CHÍA KUSI 230 GR</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>s/ 2.95 UN</t>
+          <t>s/ 10.9 UN</t>
         </is>
       </c>
     </row>
@@ -2172,13 +2175,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>BEBIDA DE ALMENDRA SIN AZÚCAR TERRAFERTIL 946 ML</t>
+          <t>MERMELADA DE FRESA, ARÁNDANO Y ZARZAMORA 230 GR</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>s/ 11.9 UN
-s/ 12.5 UN</t>
+          <t>s/ 11.4 UN</t>
         </is>
       </c>
     </row>
@@ -2190,12 +2192,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>LECHE EVAPORADA TOTTUS 24 UNIDADES</t>
+          <t>MERMELADA DE FRESA CON CHÍA Y STEVIA KUSI 230 GR</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>s/ 66.5 UN</t>
+          <t>s/ 11.2 UN</t>
         </is>
       </c>
     </row>
@@ -2207,13 +2209,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>BEBIDA DE ALMENDRA VAINILLA SIN AZÚCAR TERRAFERTI 200 ML</t>
+          <t>MERMELADA DE FRESA GR</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>s/ 11.9 UN
-s/ 12.5 UN</t>
+          <t>s/ 20 UN</t>
         </is>
       </c>
     </row>
@@ -2225,12 +2226,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>LECHE SIN LACTOSA MILKADAMIA ORIGINAL 946 ML</t>
+          <t>GALLETAS CHOCO CHIPS 185 GR</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>s/ 23.9 UN</t>
+          <t>s/ 18.6 UN</t>
         </is>
       </c>
     </row>
@@ -2242,12 +2243,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>LECHE DE ALMENDRAS EN POLVO GATTI 250 GR</t>
+          <t>ENDULZANTE STEVIA EN POLVO NUTRASTEVIA 50 GR</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>s/ 23.5 UN</t>
+          <t>s/ 24 UN</t>
         </is>
       </c>
     </row>
@@ -2259,12 +2260,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>TRI PACK LECHE GLORIA UHT ENTERA 2.7 LT</t>
+          <t>ENDULZANTE LIQUIDO NUTRASTEVIA 110 ML</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>s/ 12.1 UN</t>
+          <t>s/ 32.7 UN</t>
         </is>
       </c>
     </row>
@@ -2276,12 +2277,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>LECHE GLORIA UHT LIGHT PET 946 ML</t>
+          <t>AVENA EN VASO INSTANTÁNEA CON CHOCOLATE TOTTUS LIFE 45 GR</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>s/ 5.3 UN</t>
+          <t>s/ 4.9 UN</t>
         </is>
       </c>
     </row>
@@ -2293,12 +2294,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>CAJA LECHE EVAPORADA SEMIDESCREMADA LIGHT TOTTUS</t>
+          <t>AVENA MULTISEMILLAS TOTTUS LIFE 45 GR</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>s/ 66.5 UN</t>
+          <t>s/ 4.9 UN</t>
         </is>
       </c>
     </row>
@@ -2310,13 +2311,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>BEBIDA VEGETAL ORGÁNICA ALMENDRAS TOTTUS LIFE 1 LT</t>
+          <t>AVENA EN VASO INSTANTÁNEA CON FRUTOS ROJOS TOTTUS LIFE 45 GR</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>s/ 8.9 UN
-s/ 9.9 UN</t>
+          <t>s/ 4.9 UN</t>
         </is>
       </c>
     </row>
@@ -2328,13 +2328,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>BEBIDA VEGETAL ORGÁNICA AVENA TOTTUS LIFE 1 LT</t>
+          <t>CUPS AVENA MANZANA Y CANELA TOTTUS LIFE 45 GR</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>s/ 8.9 UN
-s/ 9.9 UN</t>
+          <t>s/ 4.9 UN</t>
         </is>
       </c>
     </row>
@@ -2346,12 +2345,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>LECHE VEGETAL NOT MILK CHOCOLATE 1LT</t>
+          <t>ENDULZANTE STEVIA POLVO TOTTUS 200 UNIDADES</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>s/ 18.5 UN</t>
+          <t>s/ 30.9 UN</t>
         </is>
       </c>
     </row>
@@ -2363,12 +2362,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>LECHE VEGETAL NOT MILK LOW FAT 1LT</t>
+          <t>ENDULZANTE EN POLVO SUGAFOR CAJA 100 UNIDADES</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>s/ 23.9 UN</t>
+          <t>s/ 29.4 UN</t>
         </is>
       </c>
     </row>
@@ -2380,12 +2379,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>DOYPACK LECHE CONDENSADA GLORIA 1.2 KG</t>
+          <t>ENDULZANTE STEVIA POLVO TOTTUS 50 UNIDADES</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>s/ 20.5 UN</t>
+          <t>s/ 13.4 UN</t>
         </is>
       </c>
     </row>
@@ -2397,12 +2396,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>LECHE CONDENSADA GLORIA 393 GR</t>
+          <t>ENDULZANTE SUCRALOSA POLVO TOTTUS 100 UNIDADES</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>s/ 5.5 UN</t>
+          <t>s/ 23.9 UN</t>
         </is>
       </c>
     </row>
@@ -2414,13 +2413,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>LECHE CONDENSADA TOTTUS 380 GR</t>
+          <t>STEVIA EN POLVO TOTTUS 100 UNIDADES</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>s/ 3.5 UN
-s/ 4 UN</t>
+          <t>s/ 19.6 UN</t>
         </is>
       </c>
     </row>
@@ -2432,12 +2430,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>CHOCO LECHE CACAO SIN AZÚCAR 90 GR</t>
+          <t>ENDULZANTE EN POLVO SUCRALOSA TOTTUS 200 UNIDADES</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>s/ 19.3 UN</t>
+          <t>s/ 44.5 UN</t>
         </is>
       </c>
     </row>
@@ -2449,12 +2447,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>LECHE CONDENSADA NESTLE 393 GR</t>
+          <t>ENDULZANTE SUCRALOSA POLVO TOTTUS 50 UNIDADES</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>s/ 6.1 UN</t>
+          <t>s/ 13.2 UN</t>
         </is>
       </c>
     </row>
@@ -2466,12 +2464,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>CHOCOLATE UHT 800 Ml</t>
+          <t>EDULCORANTE POLVO SUGAFOR 200 UNIDADES</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>s/ 2.4 UN</t>
+          <t>s/ 54.1 UN</t>
         </is>
       </c>
     </row>
@@ -2483,12 +2481,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>PACK FORMULA LIQUIDA NAN CRECIMIENTO 3 X 10 UND</t>
+          <t>SPLENDA SOBRES 50 UNIDADES</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>s/ 42.9 UN</t>
+          <t>s/ 29 UN</t>
         </is>
       </c>
     </row>
@@ -2500,12 +2498,13 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>SIX PACK YOGURT FRESA FRESA YOMOST 180 ML</t>
+          <t>EDULCORANTE SPLENDA SOBRES 200 UNIDADES</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>s/ 12 UN</t>
+          <t>s/ 67.7 UN
+s/ 95.1 UN</t>
         </is>
       </c>
     </row>
@@ -2517,12 +2516,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>SIX PACK FÓRMULA LÁCTEA LÍQUIDA NAN 400 GR</t>
+          <t>MERMELADA DE SAUCO DIET CREMA Y NATA 330 GR</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>s/ 36 UN</t>
+          <t>s/ 32.9 UN</t>
         </is>
       </c>
     </row>
@@ -2534,12 +2533,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>SIX PACK FÓRMULA ALIMENTO LÍQUIDO NAN 400 GR</t>
+          <t>MERMELADA DE ARÁNDANO DIET CREMA Y NATA 330 GR</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>s/ 27.99 UN</t>
+          <t>s/ 32.9 UN</t>
         </is>
       </c>
     </row>
@@ -2551,12 +2550,13 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>DULCE DE LECHE ESTILO COLONIAL 400 GR</t>
+          <t>EDULCORANTE SPLENDA SOBRES 100 UNIDADES</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>s/ 14.9 UN</t>
+          <t>s/ 35.6 UN
+s/ 51.4 UN</t>
         </is>
       </c>
     </row>
@@ -2568,13 +2568,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>SIMILAC TOTAL COMFORT HMO X 1.4KG</t>
+          <t>MERMELADA DE FRESA CREMA &amp; NATA 330 GR</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>s/ 201.3 UN
-s/ 205.4 UN</t>
+          <t>s/ 32.9 UN</t>
         </is>
       </c>
     </row>
@@ -2586,12 +2585,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>TRUFAS DE CHOCOLATE CON LECHE LA IBERICA 80 GR</t>
+          <t>MANTEQUILLA DE LUCÚMA 200 GR</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>s/ 34.9 UN</t>
+          <t>s/ 32 UN</t>
         </is>
       </c>
     </row>
@@ -2603,12 +2602,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>DOYPACK NESTLE LECHE CONDENSADA 90 GR</t>
+          <t>MERMELADA DE CAMU CAMU Y YACON JAM ECOANDINO 240 GR</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>s/ 3.7 UN</t>
+          <t>s/ 16.9 UN</t>
         </is>
       </c>
     </row>
@@ -2620,12 +2619,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>LINDOR CORNET DULCE LECHE 200 GR</t>
+          <t>JARABE YACÓN ORGÁNICO ECOANDINO 250 GR</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>s/ 49.9 UN</t>
+          <t>s/ 28 UN</t>
         </is>
       </c>
     </row>
@@ -2637,12 +2636,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>CHOCOLATE LECHE 80 GR</t>
+          <t>GELATINA DIETA SON STEVIA SABOR A FRESA</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>s/ 10.9 UN</t>
+          <t>s/ 5.19 UN</t>
         </is>
       </c>
     </row>
@@ -2654,12 +2653,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>CHOCOLATE KISSES CON LECHE Y ALMENDRAS 74 GR</t>
+          <t>PUDÍN DIETÉTICO SABOR A VAINILLA 19 GR</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>s/ 14.9 UN</t>
+          <t>s/ 3.9 UN</t>
         </is>
       </c>
     </row>
@@ -2671,12 +2670,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>CHOCOLATE LECHE 190 GR</t>
+          <t>GELATINA EXTRA COLÁGENO SABOR FRESA 30 GR</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>s/ 19.7 UN</t>
+          <t>s/ 5.3 UN</t>
         </is>
       </c>
     </row>
@@ -2688,12 +2687,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>DULCE DE LECHE HELADERO TOTTUS 550 GR</t>
+          <t>ENDULZANTE ZANA 950 GR</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>s/ 16.5 UN</t>
+          <t>s/ 89 UN</t>
         </is>
       </c>
     </row>
@@ -2705,12 +2704,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>COBERTURA DE LECHE 300 GR</t>
+          <t>MERMELADA AGUAYMANTO Y YACÓN CON AGAVE ORGÁNICO ECOANDINO 240 GR</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>s/ 19.9 UN</t>
+          <t>s/ 16.9 UN</t>
         </is>
       </c>
     </row>
@@ -2722,12 +2721,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>CHOCOLATE CON LECHE 39% CACAO INNATO 80G</t>
+          <t>MERMELADA DE LÚCUMA Y YACÓN 240 GR</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>s/ 10.5 UN</t>
+          <t>s/ 16.9 UN</t>
         </is>
       </c>
     </row>
@@ -2739,13 +2738,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>PEDIASURE SABOR VAINILLA 220 ML</t>
+          <t>CHUPETES SABORES SURTIDOS 85 GR</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>s/ 8.72 UN
-s/ 8.8 UN</t>
+          <t>s/ 27.5 UN</t>
         </is>
       </c>
     </row>
@@ -2757,13 +2755,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>SIMILAC 3 KID ABBOTT 1.8 KG</t>
+          <t>ARROZ EXTRA AÑEJO TOTTUS PREMIUM 750 GR</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>s/ 146.7 UN
-s/ 149.7 UN</t>
+          <t>s/ 3.9 UN</t>
         </is>
       </c>
     </row>
@@ -2775,12 +2772,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>CAJA DE TABLETAS DE CHOCOLATE DE LECHE ARCOR 696 GR</t>
+          <t>ARROZ SUPERIOR TOTTUS 750 GR</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>s/ 52.92 UN</t>
+          <t>s/ 3.1 UN</t>
         </is>
       </c>
     </row>
@@ -2792,12 +2789,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>CHOCOLATE DE LECHE CON CASTAÑAS TOSTADAS</t>
+          <t>ARROZ EXTRA TOTTUS 750 GR</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>s/ 8.3 UN</t>
+          <t>s/ 3.5 UN</t>
         </is>
       </c>
     </row>
@@ -2809,12 +2806,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>FORTIFICADA CHOCOLATE NESQUIK 400 GR</t>
+          <t>BEBIDA SABOR CITRUS SIN AZÚCAR BOTELLA 3 LT</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>s/ 12.5 UN</t>
+          <t>s/ 4.6 UN</t>
         </is>
       </c>
     </row>
@@ -2826,13 +2823,13 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>SIMILAC PRO SENSITIVE 2.1 KG</t>
+          <t>ARROZ EXTRA TOTTUS 10 KG</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>s/ 151.6 UN
-s/ 162.6 UN</t>
+          <t>s/ 32.9 UN
+s/ 36.3 UN</t>
         </is>
       </c>
     </row>
@@ -2844,12 +2841,13 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>CHOCOLATE DE LECHE LINDT LINDOR 200 GR</t>
+          <t>ARROZ SUPERIOR TOTTUS 5 KG</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>s/ 49.9 UN</t>
+          <t>s/ 16.3 UN
+s/ 18.6 UN</t>
         </is>
       </c>
     </row>
@@ -2861,13 +2859,13 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ENFAGROW PROMENTAL 1.35 KG</t>
+          <t>ARROZ SUPERIOR TOTTUS 10 KG</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>s/ 109.8 UN
-s/ 119.4 UN</t>
+          <t>s/ 31.9 UN
+s/ 34.6 UN</t>
         </is>
       </c>
     </row>
@@ -2879,12 +2877,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ANDEAN SUPER BEBIDA NUNATURA CHOCOLATE 200 GR</t>
+          <t>EQUAL STEVIA 50 SOBRES</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>s/ 12.2 UN</t>
+          <t>s/ 19.9 UN</t>
         </is>
       </c>
     </row>
@@ -2896,12 +2894,13 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>SUPER BEBIDA CHOCOLATE NUNATURA 350 GR</t>
+          <t>ARROZ EXTRA TOTTUS 5 KG</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>s/ 18.1 UN</t>
+          <t>s/ 16.9 UN
+s/ 19.7 UN</t>
         </is>
       </c>
     </row>
@@ -2913,12 +2912,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>SUPLEMENTO CHOCOLATE NESQUIK 200 GR</t>
+          <t>ARROZ EXTRA INTEGRAL TOTTUS 750 GR</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>s/ 8.5 UN</t>
+          <t>s/ 3.7 UN</t>
         </is>
       </c>
     </row>
@@ -2930,12 +2929,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>CHOCOLATE CON LECHE Y NUECES ORQUIDEA 90 GR</t>
+          <t>GINGER ALE SIN AZÚCAR BOTELLA 1.5 LT</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>s/ 15.9 UN</t>
+          <t>s/ 4.5 UN</t>
         </is>
       </c>
     </row>
@@ -2947,13 +2946,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ENFAGROW PROMENTAL VAINILLA 1.35 KG</t>
+          <t>ARROZ EXTRA INTEGRAL TOTTUS 750 GR</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>s/ 109.8 UN
-s/ 119.4 UN</t>
+          <t>s/ 3.7 UN</t>
         </is>
       </c>
     </row>
@@ -2965,12 +2963,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>CHOCOLATE CON LECHE Y CAFÉ ORQUIDEA 90 GR</t>
+          <t>ARROZ INTEGRAL TOTTUS 5 KG</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>s/ 15.9 UN</t>
+          <t>s/ 20.9 UN</t>
         </is>
       </c>
     </row>
@@ -2982,12 +2980,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>CHOCOLATE BITTER CACAO 380 GR</t>
+          <t>GINGER ALE CITRUS SIN AZÚCAR BOTELLA 1.5 LT</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>s/ 28.9 UN</t>
+          <t>s/ 4.5 UN</t>
         </is>
       </c>
     </row>
@@ -2999,12 +2997,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>BOMBONES SURTIDOS 12 UNDS</t>
+          <t>MERMELADA DE AGUAYMANTO SPREAD 390 GR</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>s/ 28 UN</t>
+          <t>s/ 17.9 UN</t>
         </is>
       </c>
     </row>
@@ -3016,12 +3014,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>BOMBONES SURTIDOS 8 UNDS</t>
+          <t>MERMELADA DE FRESA SPREAD 390 GR</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>s/ 17.5 UN</t>
+          <t>s/ 17.9 UN</t>
         </is>
       </c>
     </row>
@@ -3033,12 +3031,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>CHOCOLATE BITTER 55% CACAO INNATO 80G</t>
+          <t>MANTEQUILLA DE CHOCOLATE AMARU SUPERFOODS 200 GR</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>s/ 10.5 UN</t>
+          <t>s/ 32 UN</t>
         </is>
       </c>
     </row>
@@ -3050,13 +3048,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ENSURE ADVANCE VAINILLA 220 ML</t>
+          <t>PROTEÍNA VEGANA EN POLVO LUCÚMA AMARU SUPERFOODS 38 GR</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>s/ 9.4 UN
-s/ 10.1 UN</t>
+          <t>s/ 12 UN</t>
         </is>
       </c>
     </row>
@@ -3068,13 +3065,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>ENSURE ADVANCE CHOCOLATE 220 ML</t>
+          <t>PROTEÍNA VEGANA EN POLVO UNFLAVORED AMARU SUPERFOODS 38 GR</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>s/ 9.4 UN
-s/ 10.1 UN</t>
+          <t>s/ 12 UN</t>
         </is>
       </c>
     </row>
@@ -3086,12 +3082,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>CHOCO CEREAL BITES INNATO X 100 GR</t>
+          <t>PROTEÍNA VEGANA EN POLVO CACAO AMARU SUPERFOODS 38 GR</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>s/ 9.7 UN</t>
+          <t>s/ 12 UN</t>
         </is>
       </c>
     </row>
@@ -3103,14 +3099,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>SIMILAC 3 X 850G</t>
+          <t>BEBIDA SABOR FRUIT SIN AZÚCAR BOTELLA 3 LT</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>s/ 65.17 UN
-s/ 68.6 UN
-s/ 75.5 UN</t>
+          <t>s/ 4.6 UN</t>
         </is>
       </c>
     </row>
@@ -3122,14 +3116,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ALIMENTO COMPLEMENTARIO EN POLVO NAN® 3 OPTIPRO® 800G</t>
+          <t>GELATINA DIET SABOR A FRESA</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>s/ 66 UN
-s/ 69.5 UN
-s/ 72.9 UN</t>
+          <t>s/ 3.9 UN</t>
         </is>
       </c>
     </row>
@@ -3141,13 +3133,13 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>MEZCLA LÁCTEA NIDO® 3+ 1.6 KG</t>
+          <t>PANETÓN EN LATA TOTTUS FIESTAS PATRIAS 900 GR</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>s/ 64.5 UN
-s/ 65.9 UN</t>
+          <t>s/ 25.9 UN
+s/ 26.9 UN</t>
         </is>
       </c>
     </row>
@@ -3159,13 +3151,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ENSURE SPORT 330 ML</t>
+          <t>ENDULZANTE ZANA BLANCA 400 GR</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>s/ 11.8 UN
-s/ 12 UN</t>
+          <t>s/ 45 UN</t>
         </is>
       </c>
     </row>
@@ -3177,12 +3168,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>CHOCOLATE DE LECHE</t>
+          <t>ENDULZANTE ZANA BLANCA 150 GR</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>s/ 13.9 UN</t>
+          <t>s/ 39.9 UN</t>
         </is>
       </c>
     </row>
@@ -3194,12 +3185,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>PASTILLAS DE LECHE</t>
+          <t>JABÓN DE TOCADOR AVENA Y AZÚCAR</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>s/ 15.9 UN</t>
+          <t>s/ 19.9 UN</t>
         </is>
       </c>
     </row>
@@ -3211,12 +3202,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>CHOCOLATE DE LECHE</t>
+          <t>CHUPETES SABORES SURTIDOS ÁCIDOS 85 GR</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>s/ 4.6 UN</t>
+          <t>s/ 27.5 UN</t>
         </is>
       </c>
     </row>
@@ -3228,12 +3219,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>CHOCOLATE CON LECHE Y MANÍ 100 GR</t>
+          <t>BEBIDA ENERGIZANTE SIN AZÚCAR LATA 250 ML</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>s/ 8.6 UN</t>
+          <t>s/ 7.5 UN</t>
         </is>
       </c>
     </row>
@@ -3245,13 +3236,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>FÓRMULA SIMILAC 2 1.8 KG</t>
+          <t>GASEOSA SABOR REGULAR SIN AZÚCAR BOTELLA 500 ML</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>s/ 225.4 UN
-s/ 230 UN</t>
+          <t>s/ 2.7 UN</t>
         </is>
       </c>
     </row>
@@ -3263,12 +3253,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>BATIDO NUTRICIONAL BENET CHOCOLATE 400 GR</t>
+          <t>SIX PACK GASEOSA SIN AZÚCAR X 500 ML</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>s/ 47.9 UN</t>
+          <t>s/ 13.9 UN</t>
         </is>
       </c>
     </row>
@@ -3280,12 +3270,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>BATIDO NUTRICIONAL BENET INMUNE 200 GR</t>
+          <t>GASEOSA SABOR REGULAR SIN AZÚCAR BOTELLA 500 ML</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>s/ 34.9 UN</t>
+          <t>s/ 2.7 UN</t>
         </is>
       </c>
     </row>
@@ -3297,12 +3287,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>CHOCOLATE CON LECHE MUA MANÍ QUINUA Y PASA</t>
+          <t>SIX PACK GASEOSA SIN AZÚCAR X 300 ML</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>s/ 21 UN</t>
+          <t>s/ 8.7 UN</t>
         </is>
       </c>
     </row>
@@ -3314,12 +3304,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>CHOCOLATE LECHE 90 GR</t>
+          <t>SIX PACK GASEOSA INCA KOLA ZERO SIN AZÚCAR 500 ML</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>s/ 15.9 UN</t>
+          <t>s/ 13.9 UN</t>
         </is>
       </c>
     </row>
@@ -3331,13 +3321,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>ALIMENTO PARA GATOS ADULTOS SABOR ATUN, CARNE, POLLO Y LECHE</t>
+          <t>FOUR PACK BEBIDA ENERGIZANTE SIN AZÚCAR X 250 ML</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>s/ 41.2 UN
-s/ 51.9 UN</t>
+          <t>s/ 27.5 UN</t>
         </is>
       </c>
     </row>
@@ -3349,13 +3338,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>GALLETAS CROCANTES CON LECHE</t>
+          <t>GASEOSA SABOR REGULAR SIN AZÚCAR BOTELLA 1 LT</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>s/ 8 UN
-s/ 10.5 UN</t>
+          <t>s/ 4.9 UN</t>
         </is>
       </c>
     </row>
@@ -3367,12 +3355,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>PASTILLAS DE CHOCOLATE DE LECHE</t>
+          <t>GASEOSA SABOR REGULAR SIN AZÚCAR BOTELLA 1 LT</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>s/ 34.5 UN</t>
+          <t>s/ 4.9 UN</t>
         </is>
       </c>
     </row>
@@ -3384,12 +3372,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>COMIDA PARA PERROS RICOCAN CACHORROS RAZA MEDIANA Y GRANDE SABOR CARNE Y LECHE</t>
+          <t>BEBIDA TÉ VERDE SABOR LIMÓN SIN AZÚCAR BOTELLA 450 ML</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>s/ 119.9 UN</t>
+          <t>s/ 2.4 UN</t>
         </is>
       </c>
     </row>
@@ -3401,12 +3389,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>EL MANJAR DULCE DE LECHE 1 KG</t>
+          <t>TWO PACK INCA KOLA ZERO SIN AZÚCAR 1.5 LT</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>s/ 21.5 UN</t>
+          <t>s/ 11.8 UN</t>
         </is>
       </c>
     </row>
@@ -3418,12 +3406,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>COMIDA PARA PERROS RICOCAN CACHORROS RAZA PEQUEÑA SABOR CARNE Y LECHE</t>
+          <t>BEBIDA ALOE VERA SABOR UVA BAJO EN AZÚCAR BOTELLA 300 ML</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>s/ 34.9 UN</t>
+          <t>s/ 6.5 UN</t>
         </is>
       </c>
     </row>
@@ -3435,12 +3423,13 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>CAJA DE CHOCOLATES SUBLIME CON LECHE Y MANÍ 20 UNIDADES</t>
+          <t>JABÓN DE TOCADOR AVENA Y AZÚCAR</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>s/ 44 UN</t>
+          <t>s/ 8.5 UN
+s/ 9.5 UN</t>
         </is>
       </c>
     </row>
@@ -3452,13 +3441,13 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>FÓRMULA SIMILAC 1 1.8 KG</t>
+          <t>GASEOSA SABOR ORIGINAL LATA 355 ML</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>s/ 235 UN
-s/ 239.8 UN</t>
+          <t>s/ 5.5 UN
+s/ 5.9 UN</t>
         </is>
       </c>
     </row>
@@ -3470,12 +3459,13 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>CHOCOLATE DE LECHE EN BARRA</t>
+          <t>GASEOSA SABOR CEREZA LATA 355 ML</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>s/ 5.5 UN</t>
+          <t>s/ 5.5 UN
+s/ 5.9 UN</t>
         </is>
       </c>
     </row>
@@ -3487,12 +3477,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>CHOCOLATE DE LECHE CORAZON</t>
+          <t>GASEOSA SABOR REGULAR BOTELLA 500 ML</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>s/ 16.5 UN</t>
+          <t>s/ 2.7 UN</t>
         </is>
       </c>
     </row>
@@ -3504,12 +3494,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>CHOCOLATE CON LECHE 100 GR</t>
+          <t>GASEOSA SABOR REGULAR BOTELLA 1 LT</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>s/ 13.6 UN</t>
+          <t>s/ 4.9 UN</t>
         </is>
       </c>
     </row>
@@ -3521,12 +3511,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>COMIDA PARA PERROS RICOCAN CACHORROS RAZA PEQUEÑA SABOR CARNE Y LECHE</t>
+          <t>TWO PACK BEBIDA GASEOSA COCA COLA ORIGINAL 1.5 LT</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>s/ 119.9 UN</t>
+          <t>s/ 11.8 UN</t>
         </is>
       </c>
     </row>
@@ -3538,13 +3528,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>ALIMENTO PARA GATOS RICOCAT CARNE PESCADO Y LECHE 3 KG</t>
+          <t>TWO PACK BEBIDA GASEOSA INCA KOLA ORIGINAL 1.5 LT</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>s/ 41.2 UN
-s/ 51.9 UN</t>
+          <t>s/ 11.8 UN</t>
         </is>
       </c>
     </row>
@@ -3556,12 +3545,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>EL MANJAR DULCE DE LECHE 500 GR</t>
+          <t>COCA COLA 3 LT</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>s/ 11.9 UN</t>
+          <t>s/ 11.2 UN</t>
         </is>
       </c>
     </row>
@@ -3573,12 +3562,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>VIZZIO CHOCOLATE CON LECHE</t>
+          <t>SIX PACK GASEOSA REGULAR X 500 ML</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>s/ 20 UN</t>
+          <t>s/ 13.9 UN</t>
         </is>
       </c>
     </row>
@@ -3590,12 +3579,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>COMIDA PARA PERROS RICOCAN CACHORROS RAZA MEDIANA Y GRANDE SABOR CARNE Y LECHE</t>
+          <t>TWO PACK COCA COLA 3 LT</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>s/ 34.9 UN</t>
+          <t>s/ 20.2 UN</t>
         </is>
       </c>
     </row>
@@ -3607,13 +3596,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>COMIDA PARA PERROS RICOCAN CACHORROS RAZA MEDIANA Y GRANDE SABOR CARNE Y LECHE</t>
+          <t>TRIPACK GASEOSA COCA COLA + INCA KOLA + FANTA 3 LT</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>s/ 77 UN
-s/ 95 UN</t>
+          <t>s/ 27 UN</t>
         </is>
       </c>
     </row>
@@ -3625,12 +3613,14 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>CHOCOLATE CON LECHE SIN AZÚCAR 75 GR</t>
+          <t>TWO PACK COCA COLA + INCA KOLA 3 LT</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>s/ 8.3 UN</t>
+          <t>s/ 19.5 UN
+s/ 19.9 UN
+s/ 20.2 UN</t>
         </is>
       </c>
     </row>
@@ -3642,12 +3632,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>CHOCOLATE LECHE COCO 90 GR</t>
+          <t>MASCARILLA FACIAL PULIDORA DE CARBÓN Y AZÚCAR NEGRA</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>s/ 15.9 UN</t>
+          <t>s/ 8.4 UN</t>
         </is>
       </c>
     </row>
@@ -3659,12 +3649,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>CHOCOLATE CON LECHE ALMENDRAS 100 GR</t>
+          <t>ESTOFADO DE POLLO Y PURÉ + COCA COLA ZERO 300 ML</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>s/ 8.6 UN</t>
+          <t>s/ 13.5 UN</t>
         </is>
       </c>
     </row>
@@ -3676,2563 +3666,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>CHOCOLATE LECHE Y PECANAS 90 GR</t>
+          <t>EQUAL STEVIA 200 SOBRES</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>s/ 15.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>HUESO LECHE PETTIDE BONE</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>s/ 9.5 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>CHOCOLATE CON LECHE 85% COCOA EXCELLENCE</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>s/ 26.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>EL MANJAR DULCE DE LECHE 200 GR</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>s/ 4.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>CHUPETE LECHE Y CHOCOLATE 24 UNIDADES</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>s/ 8.3 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>BOMBONES DE CHOCOLATE Y LECHE BON O BON 150 GR</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>s/ 19.9 UN
-s/ 21.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>CHOCOLATE SUBLIME BOX</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>s/ 13.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>CHOCOLATE DE LECHE</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>s/ 8.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>CHOCOLATE DE LECHE</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>s/ 22.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>PASTILLAS DE LECHE</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>s/ 31.5 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>COBERTURA DE CHOCOLATE CON LECHE 200 GR</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>s/ 21.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>CHOCOLATE CON LECHE KISSES 14 UNDS</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>s/ 32.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>BON O BON CHOCOLATE CON LECHE 450 GR</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>s/ 28 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>CHOCOLATE SUBLIME ALMENDRAS</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>s/ 3.2 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>VIZZIO CHOCOLATE CON LECHE 72 GR</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>s/ 5.3 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>VIZZIO CHOCOLATE CON LECHE 131 GR</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>s/ 7.9 UN
-s/ 11.3 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>CHOCOLATE CON LECHE Y ALMENDRAS MONTBLANC 80 GR</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>s/ 13.1 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>CAJA DE CHOCOLATES TOTTUS CON LECHE 24 UNIDADES</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>s/ 31.2 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>CAJA DE CHOCOLATES KIT KAT 4 FINGERS MILK 24 UNIDADES</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>s/ 90.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>KIT KAT 4 FINGERS MILK 41.5 GR</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>s/ 3.8 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>ALMOHADITAS RELLENAS SABOR LECHE TOTTUS 375 GR</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>s/ 9.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>CHOCOLATE DE LECHE NUGGETS DOYBAG 120 GR</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>s/ 15.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>TABLETA CHOCOLATE CON LECHE MANI Y PASAS</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>s/ 7 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>CHOCO DONUST SABOR CHOCOLATE CON LECHE 6 UNDS</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>s/ 5.2 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>CHOCOLATE LECHE 14 UNDS</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>s/ 68.5 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>TABLETA CHOCOLATE CON LECHE</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>s/ 7 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>ALIMENTO DE CARNE, PESCADO Y LECHE PARA GATOS DE 1 A 12 MESES</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>s/ 17.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>ALIMENTO DE POLLO, CARNE Y LECHE PARA GATOS DE 0 A 12 MESES</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>s/ 19.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>CONFITE DE CHOCOLATE M&amp;M CON LECHE 45 GR</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>s/ 4.6 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>CEREAL DE ARROZ DE CHOCOLATE CON LECHE MINI GORDI 350 GR</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>s/ 14.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>CHOCOLATE SUBLIME SONRISA</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>s/ 2.1 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>CAFÉ CON LECHE NESCAFÉ DOLCE GUSTO 16 CÁPSULAS</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>s/ 39.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>ALIMENTO DE CARNE, SALMON Y LECHE PARA GATOS DE 1 A MAS AÑOS</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>s/ 17.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>ALIMENTO PARA CACHORRO SABOR CARNE Y LECHE TODAS LAS RAZAS</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>s/ 27.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>ALIMENTO PARA GATOS ADULTOS RICOCAT CARNE SALMÓN Y LECHE</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>s/ 94.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>CHOCOLATE CON LECHE MINI 24 UNDS</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>s/ 112.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>TABLETA CHOCOLATE CON LECHE Y GALLETAS</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>s/ 7 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>CEREAL INFANTIL CERELAC® 5 CEREALES Y LECHE 400G</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>s/ 19.8 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>CHOCOLATE PURO MUA BERRIES QUINUA CON LECHE Y ALMENDRAS 37 GR</t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>s/ 3.5 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>CHOCOLATE CON ALMENDRAS 10 UNDS</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>s/ 30.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>WAFER POWER CHOCOLATE 6 UNDS</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>s/ 8.7 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>COMIDA PARA GATOS CACHORROS RICOCAT CARNE, PESCADO Y LECHE 500 GR</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>s/ 8.9 UN
-s/ 10.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>CHOCOLATE DE LECHE KISSES HERSHEYS 102 GR</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>s/ 18.6 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>CHOCOLATE SUBLIME EXTREMO</t>
-        </is>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>s/ 3.5 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>Alimento húmedo para perro Dog Chow Cachorro Raza pequeña sabor carne y leche en pouch de 100 Gr</t>
-        </is>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>s/ 4.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>COMIDA PARA GATOS RICOCAT CARNE, SALMÓN Y LECHE 500 GR</t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>s/ 8.9 UN
-s/ 10.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>CAJA DE M&amp;M SABOR CHOCOLATE CON LECHE 18 UNIDADES</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>s/ 82.8 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>BOMBONES CON CHOCOLATE DE LECHE Y OBLEA RELLENOS CON CREMA DE MANÍ</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>s/ 12.2 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>CONFITE CHOCOLATE M&amp;M CON LECHE Y MANÍ 45 GR</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>s/ 4.6 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>Alimento para Gatos Cat Chow Gatitos en bolsa de 1 Kg</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>s/ 26.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>Alimento para Gatos Cat Chow Gatitos en bolsa de 8 Kg</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>s/ 128.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>CAJA DE M&amp;M SABOR CHOCOLATE CON LECHE RELLENO CON MANÍ 18 UNIDADES</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>s/ 82.8 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>SIMILAC TOTAL COMFORT ETAPA 1 X 820G</t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>s/ 127.8 UN
-s/ 130.4 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>BEBIDA INSTANTANEA GRANULADA TOTTUS 400 GR</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>s/ 14.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>DOYPACK BEBIDA INSTANTANEA GRANULADA TOTTUS 200 GR</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>s/ 8.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>CHOCOLATE ALMENDRAS SIN AZÚCAR 75 GR</t>
-        </is>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>s/ 8.3 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>CHOCOLATE AVELLANAS SIN AZÚCAR 75 GR</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>s/ 8.3 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>CAJA DE CHOCOLATES TRIÁNGULO 22 UNIDADES</t>
-        </is>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>s/ 37.4 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>SUPLEMENTO TRIPLESURE CHOCOLATE PEDIASURE 1.6 K GR</t>
-        </is>
-      </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>s/ 154.7 UN
-s/ 165.1 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>FOUR PACK ENSURE ADVANCE VAINILLA 220 ML</t>
-        </is>
-      </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>s/ 34 UN
-s/ 36.4 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>CARAMELOS OH! AMBROSOLI 100 UNIDADES</t>
-        </is>
-      </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>s/ 19.7 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>SUPLEMENTO GRANULADO MILO 400 GR + MEZCLA LACTEA IDEAL AMANECER 395 GR</t>
-        </is>
-      </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>s/ 18.3 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>SIMILAC 1 X 850G</t>
-        </is>
-      </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>s/ 123.8 UN
-s/ 126.3 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>FOUR PACK PEDIASURE VAINILLA 220 ML</t>
-        </is>
-      </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>s/ 31.3 UN
-s/ 33.5 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>CHOCOLATE PARA TAZA CON CANELA Y CLAVO SOL DEL CUSCO 90 GR</t>
-        </is>
-      </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>s/ 2.2 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>CHOCOLATE PARA TAZA TRADICIONAL SOL DEL CUSCO 90 GR</t>
-        </is>
-      </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>s/ 2.2 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>FORMULA SIMILAC 2 X 850G</t>
-        </is>
-      </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>s/ 120.3 UN
-s/ 122.8 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>SIMILAC MAMA X 400G</t>
-        </is>
-      </c>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>s/ 53.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>ALIMENTO GRANULADO MILO ACTIV GO 400 GR</t>
-        </is>
-      </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>s/ 14.9 UN
-s/ 15.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>CHOCOLATE TRIÁNGULO SIN AZÚCARES 170 GR</t>
-        </is>
-      </c>
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>s/ 1.6 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>TÉ DE COCO TROPICAL NATURES HEART 20 UNIDADES</t>
-        </is>
-      </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>s/ 11.5 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>ENFAMIL PREMIUM 2 1,1 KG</t>
-        </is>
-      </c>
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>s/ 179.1 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B261" t="inlineStr">
-        <is>
-          <t>ENFAMIL CONFORT PREMIUM 375 GR</t>
-        </is>
-      </c>
-      <c r="C261" t="inlineStr">
-        <is>
-          <t>s/ 73.1 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>PEDIASURE VAINILLA 1.6 KG</t>
-        </is>
-      </c>
-      <c r="C262" t="inlineStr">
-        <is>
-          <t>s/ 154.7 UN
-s/ 165.1 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>ENFAGROW PRO MENTAL PREESCOLAR 1,1 KG</t>
-        </is>
-      </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>s/ 82.6 UN
-s/ 87 UN
-s/ 93.7 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>DOYPACK FORTIFICANTE CHOCOLATE NESQUIK 500 GR</t>
-        </is>
-      </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>s/ 15.5 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>COCOA TOTTUS 500 GR</t>
-        </is>
-      </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>s/ 17.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>ENFAMIL PREMIUM 2 1,65 KG</t>
-        </is>
-      </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>s/ 233 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>ENFAMIL PREMIUM2 1,1 KG</t>
-        </is>
-      </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>s/ 169.1 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>ENFAMIL PREMIUM 1 375 GR</t>
-        </is>
-      </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>s/ 69.1 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>FÓRMULA INFANTIL EN POLVO NAN® 2 OPTIPRO® 900G</t>
-        </is>
-      </c>
-      <c r="C269" t="inlineStr">
-        <is>
-          <t>s/ 127.6 UN
-s/ 130.2 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>ENFAGROW PRO MENTAL VAINILLA 1,65 GR</t>
-        </is>
-      </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>s/ 119 UN
-s/ 125.3 UN
-s/ 140.7 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B271" t="inlineStr">
-        <is>
-          <t>ENFAMIL PREMIUM 1 1,65 KG</t>
-        </is>
-      </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>s/ 246.7 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>ENFAGROW PRO MENTAL 2,2 KG</t>
-        </is>
-      </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>s/ 160.23 UN
-s/ 168.75 UN
-s/ 186.2 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>MILO ACTIGEN 1 KG</t>
-        </is>
-      </c>
-      <c r="C273" t="inlineStr">
-        <is>
-          <t>s/ 36 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B274" t="inlineStr">
-        <is>
-          <t>ENFAMIL CONFORT PREMIUM 800 GR</t>
-        </is>
-      </c>
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>s/ 141.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B275" t="inlineStr">
-        <is>
-          <t>ENFAGROW PRO MENTAL VAINILLA 2,2 GR</t>
-        </is>
-      </c>
-      <c r="C275" t="inlineStr">
-        <is>
-          <t>s/ 160.23 UN
-s/ 168.75 UN
-s/ 186.2 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B276" t="inlineStr">
-        <is>
-          <t>MAZAMORRA MORADA 150G</t>
-        </is>
-      </c>
-      <c r="C276" t="inlineStr">
-        <is>
-          <t>s/ 3.7 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B277" t="inlineStr">
-        <is>
-          <t>COCOA TRADICIONAL TOTTUS 160 GR</t>
-        </is>
-      </c>
-      <c r="C277" t="inlineStr">
-        <is>
-          <t>s/ 6.8 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B278" t="inlineStr">
-        <is>
-          <t>DOYPACK FORTIFICANTE MILO ACTIVGO 200 GR</t>
-        </is>
-      </c>
-      <c r="C278" t="inlineStr">
-        <is>
-          <t>s/ 10.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B279" t="inlineStr">
-        <is>
-          <t>MACA MORNINGS ORGÁNICO ECOANDINO 200 GR</t>
-        </is>
-      </c>
-      <c r="C279" t="inlineStr">
-        <is>
-          <t>s/ 16.7 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B280" t="inlineStr">
-        <is>
-          <t>LÚCUMA MORNING ORGÁNICO ECOANDINO 200 GR</t>
-        </is>
-      </c>
-      <c r="C280" t="inlineStr">
-        <is>
-          <t>s/ 16.7 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B281" t="inlineStr">
-        <is>
-          <t>SUPLEMENTO CACAO MORNING ORGÁNICO ECOANDINO 200 GR</t>
-        </is>
-      </c>
-      <c r="C281" t="inlineStr">
-        <is>
-          <t>s/ 16.7 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>TWO PACK SUPLEMENTO ENSURE ADVANCE CHOCOLATE 850 GR</t>
-        </is>
-      </c>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>s/ 148.6 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B283" t="inlineStr">
-        <is>
-          <t>SUPLEMENTO KIWIGEN CHOCOLATE 400 GR</t>
-        </is>
-      </c>
-      <c r="C283" t="inlineStr">
-        <is>
-          <t>s/ 23 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B284" t="inlineStr">
-        <is>
-          <t>MEZCLA LÁCTEA NIDO® 5+ 1.6KG</t>
-        </is>
-      </c>
-      <c r="C284" t="inlineStr">
-        <is>
-          <t>s/ 62.6 UN
-s/ 63.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B285" t="inlineStr">
-        <is>
-          <t>FORTIFICANTE GLUCERNA VAINILLA 900 GR</t>
-        </is>
-      </c>
-      <c r="C285" t="inlineStr">
-        <is>
-          <t>s/ 124 UN
-s/ 131.1 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B286" t="inlineStr">
-        <is>
-          <t>PACK PEDIASURE VAINILLA 900 GR Y 400 GR</t>
-        </is>
-      </c>
-      <c r="C286" t="inlineStr">
-        <is>
-          <t>s/ 140.6 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>SUPLEMENTO PEDIASURE PLUS TRIPLESURE VAINILLA 900 GR</t>
-        </is>
-      </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>s/ 88.6 UN
-s/ 104.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>SUPLEMENTO PEDIASURE PLUS TRIPLESURE CHOCOLATE 900 GR</t>
-        </is>
-      </c>
-      <c r="C288" t="inlineStr">
-        <is>
-          <t>s/ 88.6 UN
-s/ 104.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B289" t="inlineStr">
-        <is>
-          <t>ENFAGROW PRO MENTAL VAINILLA</t>
-        </is>
-      </c>
-      <c r="C289" t="inlineStr">
-        <is>
-          <t>s/ 66.9 UN
-s/ 73.4 UN
-s/ 80.4 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>ENFAGROW PRO MENTAL</t>
-        </is>
-      </c>
-      <c r="C290" t="inlineStr">
-        <is>
-          <t>s/ 66.9 UN
-s/ 73.4 UN
-s/ 80.4 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t>MAZAMORRA MORADA 150 GR</t>
-        </is>
-      </c>
-      <c r="C291" t="inlineStr">
-        <is>
-          <t>s/ 3.6 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B292" t="inlineStr">
-        <is>
-          <t>CEBADA INSTANTÁNEA EN POLVO TOTTUS 170 GR</t>
-        </is>
-      </c>
-      <c r="C292" t="inlineStr">
-        <is>
-          <t>s/ 8.6 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>VIZZIO MIX 131 GR</t>
-        </is>
-      </c>
-      <c r="C293" t="inlineStr">
-        <is>
-          <t>s/ 7.9 UN
-s/ 10.7 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B294" t="inlineStr">
-        <is>
-          <t>VIZZIO MIX 189 GR</t>
-        </is>
-      </c>
-      <c r="C294" t="inlineStr">
-        <is>
-          <t>s/ 17.5 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t>PEDIASURE PLUS TRIPLESURE CHOCOLATE 400 GR</t>
-        </is>
-      </c>
-      <c r="C295" t="inlineStr">
-        <is>
-          <t>s/ 45 UN
-s/ 60 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>SUPLEMENTO NUTRICIONAL VAINILLA PLUS TRIPLESURE PEDIASURE 400 GR</t>
-        </is>
-      </c>
-      <c r="C296" t="inlineStr">
-        <is>
-          <t>s/ 45 UN
-s/ 60 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>ANDEAN SUPER BEBIDA NUNATURA VAINILA 200 GR</t>
-        </is>
-      </c>
-      <c r="C297" t="inlineStr">
-        <is>
-          <t>s/ 12.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B298" t="inlineStr">
-        <is>
-          <t>SUSTAGEN CHOCOLATE LT 400 GR</t>
-        </is>
-      </c>
-      <c r="C298" t="inlineStr">
-        <is>
-          <t>s/ 36.1 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t>SUPLEMENTO CHOCOLATE CHOCOLISTO 300 GR</t>
-        </is>
-      </c>
-      <c r="C299" t="inlineStr">
-        <is>
-          <t>s/ 12.2 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t>SUPLEMENTO KIWI GEN FRESA 400 GR</t>
-        </is>
-      </c>
-      <c r="C300" t="inlineStr">
-        <is>
-          <t>s/ 23 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B301" t="inlineStr">
-        <is>
-          <t>KIWIGEN VAINILLA 400 GR</t>
-        </is>
-      </c>
-      <c r="C301" t="inlineStr">
-        <is>
-          <t>s/ 23 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B302" t="inlineStr">
-        <is>
-          <t>ANDEAN SUPERDRINK NUNATURA SABOR VAINILA 350 GR</t>
-        </is>
-      </c>
-      <c r="C302" t="inlineStr">
-        <is>
-          <t>s/ 17.7 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B303" t="inlineStr">
-        <is>
-          <t>CAFÉ VERDE ORGÁNICO EN POLVO ECOANDINO 200 GR</t>
-        </is>
-      </c>
-      <c r="C303" t="inlineStr">
-        <is>
-          <t>s/ 17.5 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B304" t="inlineStr">
-        <is>
-          <t>CACAO ORGÁNICO EN POLVO ECOANDINO 200 GR</t>
-        </is>
-      </c>
-      <c r="C304" t="inlineStr">
-        <is>
-          <t>s/ 15.2 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B305" t="inlineStr">
-        <is>
-          <t>MAZAMORRA MAÍZ MORADO 140 GR</t>
-        </is>
-      </c>
-      <c r="C305" t="inlineStr">
-        <is>
-          <t>s/ 4 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B306" t="inlineStr">
-        <is>
-          <t>LÚCUMA EN POLVO ECOANDINO 250 GR</t>
-        </is>
-      </c>
-      <c r="C306" t="inlineStr">
-        <is>
-          <t>s/ 27.5 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B307" t="inlineStr">
-        <is>
-          <t>MACA GELATINIZADA ORGÁNICO ECOANDINO 250 GR</t>
-        </is>
-      </c>
-      <c r="C307" t="inlineStr">
-        <is>
-          <t>s/ 27.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B308" t="inlineStr">
-        <is>
-          <t>SIMILAC 1 PRO SENSITIVE 400 GR</t>
-        </is>
-      </c>
-      <c r="C308" t="inlineStr">
-        <is>
-          <t>s/ 63.4 UN
-s/ 64.7 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B309" t="inlineStr">
-        <is>
-          <t>ENFAMIL PREMIUM 2 850 GR</t>
-        </is>
-      </c>
-      <c r="C309" t="inlineStr">
-        <is>
-          <t>s/ 150.4 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B310" t="inlineStr">
-        <is>
-          <t>ENFAMIL PREMIUM 2</t>
-        </is>
-      </c>
-      <c r="C310" t="inlineStr">
-        <is>
-          <t>s/ 67.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B311" t="inlineStr">
-        <is>
-          <t>ALIMENTO COMPLEMENTARIO NIDO® 1+ 1.6KG</t>
-        </is>
-      </c>
-      <c r="C311" t="inlineStr">
-        <is>
-          <t>s/ 66.5 UN
-s/ 67.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B312" t="inlineStr">
-        <is>
-          <t>POLVO INSTANTÁNEO QUINUA BLANCA 227 GR</t>
-        </is>
-      </c>
-      <c r="C312" t="inlineStr">
-        <is>
-          <t>s/ 23.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B313" t="inlineStr">
-        <is>
-          <t>MACA GELATINIZADA ORGANICA AMERICA ORGANICA 170 GR</t>
-        </is>
-      </c>
-      <c r="C313" t="inlineStr">
-        <is>
-          <t>s/ 22.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B314" t="inlineStr">
-        <is>
-          <t>TRIPACK JABÓN LECHE DE COCO DOVE 90 GR</t>
-        </is>
-      </c>
-      <c r="C314" t="inlineStr">
-        <is>
-          <t>s/ 10.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B315" t="inlineStr">
-        <is>
-          <t>EXTRACTOR DE LECHE MANUAL PALANCA</t>
-        </is>
-      </c>
-      <c r="C315" t="inlineStr">
-        <is>
-          <t>s/ 125.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B316" t="inlineStr">
-        <is>
-          <t>ENVASE PARA LECHE EN POLVO TRES COLORES</t>
-        </is>
-      </c>
-      <c r="C316" t="inlineStr">
-        <is>
-          <t>s/ 38.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B317" t="inlineStr">
-        <is>
-          <t>TRIPACK JABÓN PROTEÍNA DE LECHE NIVEA 85 GR</t>
-        </is>
-      </c>
-      <c r="C317" t="inlineStr">
-        <is>
-          <t>s/ 17.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B318" t="inlineStr">
-        <is>
-          <t>BOLSAS DE LECHE MATERNA UNIMOM 30 UNIDADES</t>
-        </is>
-      </c>
-      <c r="C318" t="inlineStr">
-        <is>
-          <t>s/ 37.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B319" t="inlineStr">
-        <is>
-          <t>BOLSAS STORE &amp; FEED UNIMOM 20 UNIDADES</t>
-        </is>
-      </c>
-      <c r="C319" t="inlineStr">
-        <is>
-          <t>s/ 49.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B320" t="inlineStr">
-        <is>
-          <t>BIBERON TRANSPARENTE OPT+ BOCA ANCHA AZUL</t>
-        </is>
-      </c>
-      <c r="C320" t="inlineStr">
-        <is>
-          <t>s/ 56.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B321" t="inlineStr">
-        <is>
-          <t>BOLSAS DE LECHE MATERNA TS</t>
-        </is>
-      </c>
-      <c r="C321" t="inlineStr">
-        <is>
-          <t>s/ 91.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B322" t="inlineStr">
-        <is>
-          <t>BIBERON TRANSPARENTE OPT+ BOCA ANCHA ROSA</t>
-        </is>
-      </c>
-      <c r="C322" t="inlineStr">
-        <is>
-          <t>s/ 56.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B323" t="inlineStr">
-        <is>
-          <t>ENVASES ALMACENADORES POR 3 UND</t>
-        </is>
-      </c>
-      <c r="C323" t="inlineStr">
-        <is>
-          <t>s/ 44.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B324" t="inlineStr">
-        <is>
-          <t>DISPENSADOR DE LECHE EN POLVO VERDE</t>
-        </is>
-      </c>
-      <c r="C324" t="inlineStr">
-        <is>
-          <t>s/ 10.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B325" t="inlineStr">
-        <is>
-          <t>DISPENSADOR DE LECHE EN POLVO CELESTE</t>
-        </is>
-      </c>
-      <c r="C325" t="inlineStr">
-        <is>
-          <t>s/ 10.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B326" t="inlineStr">
-        <is>
-          <t>BOLSAS PARA LECHE MATERNA CJA X 20 UN</t>
-        </is>
-      </c>
-      <c r="C326" t="inlineStr">
-        <is>
-          <t>s/ 14.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B327" t="inlineStr">
-        <is>
-          <t>SET DE LACTANCIA CON EXTRACTOR PALANCA</t>
-        </is>
-      </c>
-      <c r="C327" t="inlineStr">
-        <is>
-          <t>s/ 262.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B328" t="inlineStr">
-        <is>
-          <t>NUBY DISPENSADOR DE LECHE 3 COMPARTIMIENTOS</t>
-        </is>
-      </c>
-      <c r="C328" t="inlineStr">
-        <is>
-          <t>s/ 17.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B329" t="inlineStr">
-        <is>
-          <t>CREMA CORPORAL CON LECHE HIDRATANTE Y UREA</t>
-        </is>
-      </c>
-      <c r="C329" t="inlineStr">
-        <is>
-          <t>s/ 35.5 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B330" t="inlineStr">
-        <is>
-          <t>CREMA CORPORAL CON LECHE HIDRATANTE Y AVENA</t>
-        </is>
-      </c>
-      <c r="C330" t="inlineStr">
-        <is>
-          <t>s/ 32 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B331" t="inlineStr">
-        <is>
-          <t>DESMAQUILLANTE HYDRATACIÓN TOTAL 200 ML</t>
-        </is>
-      </c>
-      <c r="C331" t="inlineStr">
-        <is>
-          <t>s/ 29.9 UN
-s/ 36.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B332" t="inlineStr">
-        <is>
-          <t>ANTHELIOS PROTECTOR SOLAR LECHE BEBÉ SPF50+ 50 ML</t>
-        </is>
-      </c>
-      <c r="C332" t="inlineStr">
-        <is>
-          <t>s/ 99.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>SILICONA FIRST CHOICE M LECHE 2 BX2 NUK</t>
-        </is>
-      </c>
-      <c r="C333" t="inlineStr">
-        <is>
-          <t>s/ 35.1 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B334" t="inlineStr">
-        <is>
-          <t>COPA TRES LECHES CAFÉ</t>
-        </is>
-      </c>
-      <c r="C334" t="inlineStr">
-        <is>
-          <t>s/ 5.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B335" t="inlineStr">
-        <is>
-          <t>TORTA TRES LECHES ALGARROBINA CHICA</t>
-        </is>
-      </c>
-      <c r="C335" t="inlineStr">
-        <is>
-          <t>s/ 45.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B336" t="inlineStr">
-        <is>
-          <t>TORTA TRES LECHES VAINILLA CHICA</t>
-        </is>
-      </c>
-      <c r="C336" t="inlineStr">
-        <is>
-          <t>s/ 45.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B337" t="inlineStr">
-        <is>
-          <t>TORTA TRES LECHES VAINILLA MEDIANA</t>
-        </is>
-      </c>
-      <c r="C337" t="inlineStr">
-        <is>
-          <t>s/ 59.9 UN</t>
+          <t>s/ 65 UN</t>
         </is>
       </c>
     </row>
